--- a/data/pca/factorExposure/factorExposure_2016-05-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01063969778270673</v>
+        <v>-0.01325379568467459</v>
       </c>
       <c r="C2">
-        <v>-0.05215118974017734</v>
+        <v>0.03750493267994089</v>
       </c>
       <c r="D2">
-        <v>0.04166658824705446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0548970217488508</v>
+      </c>
+      <c r="E2">
+        <v>-0.08695426117978013</v>
+      </c>
+      <c r="F2">
+        <v>0.0846187311667982</v>
+      </c>
+      <c r="G2">
+        <v>0.003471881193012884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03865760400973322</v>
+        <v>-0.02450897457341161</v>
       </c>
       <c r="C3">
-        <v>-0.119378414760525</v>
+        <v>0.06928275487835599</v>
       </c>
       <c r="D3">
-        <v>0.09542954693490074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07304537800723075</v>
+      </c>
+      <c r="E3">
+        <v>-0.06622838790601883</v>
+      </c>
+      <c r="F3">
+        <v>-0.02141570083813634</v>
+      </c>
+      <c r="G3">
+        <v>0.04373424634859065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05857665733782189</v>
+        <v>-0.05715413961377618</v>
       </c>
       <c r="C4">
-        <v>-0.06161302283517742</v>
+        <v>0.06477779274564964</v>
       </c>
       <c r="D4">
-        <v>0.02838655180432002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05023910233778438</v>
+      </c>
+      <c r="E4">
+        <v>-0.08380072657148434</v>
+      </c>
+      <c r="F4">
+        <v>0.06046510748382836</v>
+      </c>
+      <c r="G4">
+        <v>0.07696973540078149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03914453367542541</v>
+        <v>-0.0347929396902135</v>
       </c>
       <c r="C6">
-        <v>-0.03737144372380592</v>
+        <v>0.02883375113895236</v>
       </c>
       <c r="D6">
-        <v>0.03266388303727793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05832588585263901</v>
+      </c>
+      <c r="E6">
+        <v>-0.08730250043667723</v>
+      </c>
+      <c r="F6">
+        <v>0.04617805698976923</v>
+      </c>
+      <c r="G6">
+        <v>0.06095462175400856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02117375219647362</v>
+        <v>-0.01714676400897974</v>
       </c>
       <c r="C7">
-        <v>-0.04709909139464525</v>
+        <v>0.03990333692435303</v>
       </c>
       <c r="D7">
-        <v>-0.009703359070317946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03204070270111621</v>
+      </c>
+      <c r="E7">
+        <v>-0.06100473746640626</v>
+      </c>
+      <c r="F7">
+        <v>0.09248514420318785</v>
+      </c>
+      <c r="G7">
+        <v>0.06934770162654733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005718704186392452</v>
+        <v>-0.00322715288855109</v>
       </c>
       <c r="C8">
-        <v>-0.03519117451108496</v>
+        <v>0.03181203595179845</v>
       </c>
       <c r="D8">
-        <v>0.02716935036088308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02998294562925528</v>
+      </c>
+      <c r="E8">
+        <v>-0.05790866893384876</v>
+      </c>
+      <c r="F8">
+        <v>0.02968050493506175</v>
+      </c>
+      <c r="G8">
+        <v>0.03158168990877713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03284616664168092</v>
+        <v>-0.03655205519832112</v>
       </c>
       <c r="C9">
-        <v>-0.04958719240775288</v>
+        <v>0.05247524079594598</v>
       </c>
       <c r="D9">
-        <v>0.01223586282103054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03570426224853149</v>
+      </c>
+      <c r="E9">
+        <v>-0.07135490824906499</v>
+      </c>
+      <c r="F9">
+        <v>0.07213303389682968</v>
+      </c>
+      <c r="G9">
+        <v>0.06709112155174977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08195028391278847</v>
+        <v>-0.105417083677647</v>
       </c>
       <c r="C10">
-        <v>0.1877043140824546</v>
+        <v>-0.1950200490322845</v>
       </c>
       <c r="D10">
-        <v>-0.009494556943772596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01406170862637737</v>
+      </c>
+      <c r="E10">
+        <v>-0.04029562727461387</v>
+      </c>
+      <c r="F10">
+        <v>0.02492249457776013</v>
+      </c>
+      <c r="G10">
+        <v>0.02667076945958322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04035050553329897</v>
+        <v>-0.03562706278722289</v>
       </c>
       <c r="C11">
-        <v>-0.05329548889063319</v>
+        <v>0.04919587715158572</v>
       </c>
       <c r="D11">
-        <v>0.009792142172505937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0298631536564978</v>
+      </c>
+      <c r="E11">
+        <v>-0.02440444103177529</v>
+      </c>
+      <c r="F11">
+        <v>0.05597159149093228</v>
+      </c>
+      <c r="G11">
+        <v>0.05315364824883961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04219203844842308</v>
+        <v>-0.03758637161909333</v>
       </c>
       <c r="C12">
-        <v>-0.0496808030472581</v>
+        <v>0.04685778582506493</v>
       </c>
       <c r="D12">
-        <v>0.001205558204695229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02412700822703584</v>
+      </c>
+      <c r="E12">
+        <v>-0.03275237484905255</v>
+      </c>
+      <c r="F12">
+        <v>0.05756354732023843</v>
+      </c>
+      <c r="G12">
+        <v>0.05015975169317432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01306844118344524</v>
+        <v>-0.01035122990389402</v>
       </c>
       <c r="C13">
-        <v>-0.05523879100275027</v>
+        <v>0.04327483452324122</v>
       </c>
       <c r="D13">
-        <v>0.007909634937417165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04211818117396416</v>
+      </c>
+      <c r="E13">
+        <v>-0.09579510916358462</v>
+      </c>
+      <c r="F13">
+        <v>0.08169426038288997</v>
+      </c>
+      <c r="G13">
+        <v>0.07603467415385289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006870097186958605</v>
+        <v>-0.003847610733861372</v>
       </c>
       <c r="C14">
-        <v>-0.04311362198854151</v>
+        <v>0.03411588525642353</v>
       </c>
       <c r="D14">
-        <v>-0.01200804827383314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02209917737312397</v>
+      </c>
+      <c r="E14">
+        <v>-0.0495074488764688</v>
+      </c>
+      <c r="F14">
+        <v>0.09251013263772953</v>
+      </c>
+      <c r="G14">
+        <v>0.05472329160387238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002665093463594897</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005201214181207506</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007287474867545648</v>
+      </c>
+      <c r="E15">
+        <v>-0.0042061241565343</v>
+      </c>
+      <c r="F15">
+        <v>0.006091860602728399</v>
+      </c>
+      <c r="G15">
+        <v>0.004473419723527164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03733148808516992</v>
+        <v>-0.03349421426534915</v>
       </c>
       <c r="C16">
-        <v>-0.05064217231127129</v>
+        <v>0.04589487386285142</v>
       </c>
       <c r="D16">
-        <v>0.005364773541406675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02356816466787972</v>
+      </c>
+      <c r="E16">
+        <v>-0.03919092051632302</v>
+      </c>
+      <c r="F16">
+        <v>0.0619923932626605</v>
+      </c>
+      <c r="G16">
+        <v>0.03923004532761899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02140606767498293</v>
+        <v>-0.01610184526119031</v>
       </c>
       <c r="C19">
-        <v>-0.0645792205235682</v>
+        <v>0.04640299301566113</v>
       </c>
       <c r="D19">
-        <v>0.09044157805572964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08794418623183479</v>
+      </c>
+      <c r="E19">
+        <v>-0.111628553994372</v>
+      </c>
+      <c r="F19">
+        <v>0.07629046760653188</v>
+      </c>
+      <c r="G19">
+        <v>0.02486194789412235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0158649306021742</v>
+        <v>-0.0126434273170734</v>
       </c>
       <c r="C20">
-        <v>-0.04860142999392431</v>
+        <v>0.03924858869749116</v>
       </c>
       <c r="D20">
-        <v>0.008358380510516027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02984077825365303</v>
+      </c>
+      <c r="E20">
+        <v>-0.07617799945311518</v>
+      </c>
+      <c r="F20">
+        <v>0.06806624420093303</v>
+      </c>
+      <c r="G20">
+        <v>0.05051595844135534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.009744695668046246</v>
+        <v>-0.008832826412024488</v>
       </c>
       <c r="C21">
-        <v>-0.05155548633791527</v>
+        <v>0.04229302471128703</v>
       </c>
       <c r="D21">
-        <v>0.03693689460368097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05600739612526127</v>
+      </c>
+      <c r="E21">
+        <v>-0.1168929359515061</v>
+      </c>
+      <c r="F21">
+        <v>0.1079272587627116</v>
+      </c>
+      <c r="G21">
+        <v>0.07768431298183648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001155246914944132</v>
+        <v>-0.002323525585527631</v>
       </c>
       <c r="C22">
-        <v>-0.0006285933419734796</v>
+        <v>0.02648654860552044</v>
       </c>
       <c r="D22">
-        <v>0.002618082250644917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04233344345700688</v>
+      </c>
+      <c r="E22">
+        <v>-0.04093335331664261</v>
+      </c>
+      <c r="F22">
+        <v>-0.0005707625426236838</v>
+      </c>
+      <c r="G22">
+        <v>0.05243598931937838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001160895537235615</v>
+        <v>-0.002401669577999597</v>
       </c>
       <c r="C23">
-        <v>-0.0006287772530251021</v>
+        <v>0.02663954421973767</v>
       </c>
       <c r="D23">
-        <v>0.002623821378611764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04192307513802716</v>
+      </c>
+      <c r="E23">
+        <v>-0.04118515044563875</v>
+      </c>
+      <c r="F23">
+        <v>-0.0008367818985768755</v>
+      </c>
+      <c r="G23">
+        <v>0.05250462918727052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03439101632491323</v>
+        <v>-0.03357300614142578</v>
       </c>
       <c r="C24">
-        <v>-0.05157568286419397</v>
+        <v>0.05322388495380806</v>
       </c>
       <c r="D24">
-        <v>0.005918823292747988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02333825544711873</v>
+      </c>
+      <c r="E24">
+        <v>-0.03989311071308794</v>
+      </c>
+      <c r="F24">
+        <v>0.06541967639030605</v>
+      </c>
+      <c r="G24">
+        <v>0.0499335083293086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04729390564036914</v>
+        <v>-0.0427252449272339</v>
       </c>
       <c r="C25">
-        <v>-0.06303545091617349</v>
+        <v>0.05736514822067614</v>
       </c>
       <c r="D25">
-        <v>-0.004157906575484884</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02252674665146826</v>
+      </c>
+      <c r="E25">
+        <v>-0.02975798842628663</v>
+      </c>
+      <c r="F25">
+        <v>0.06039203896478181</v>
+      </c>
+      <c r="G25">
+        <v>0.06548906350107454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01550990420296221</v>
+        <v>-0.0142751814546343</v>
       </c>
       <c r="C26">
-        <v>-0.01887906970260752</v>
+        <v>0.01833252573320238</v>
       </c>
       <c r="D26">
-        <v>0.0007489650641170966</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02222378581754639</v>
+      </c>
+      <c r="E26">
+        <v>-0.04950938462554049</v>
+      </c>
+      <c r="F26">
+        <v>0.06763494794039711</v>
+      </c>
+      <c r="G26">
+        <v>0.0279389502114658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09669922777280844</v>
+        <v>-0.1407506791967172</v>
       </c>
       <c r="C28">
-        <v>0.2421748117826492</v>
+        <v>-0.2484175705352762</v>
       </c>
       <c r="D28">
-        <v>-0.009129297948572141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02913129817330485</v>
+      </c>
+      <c r="E28">
+        <v>-0.05601556938112146</v>
+      </c>
+      <c r="F28">
+        <v>0.0405108673217783</v>
+      </c>
+      <c r="G28">
+        <v>0.04656488552936522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00612659766697865</v>
+        <v>-0.004627419903950243</v>
       </c>
       <c r="C29">
-        <v>-0.03503690060343519</v>
+        <v>0.03042685104668297</v>
       </c>
       <c r="D29">
-        <v>-0.01623470708897918</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01590741248665601</v>
+      </c>
+      <c r="E29">
+        <v>-0.04789208487238215</v>
+      </c>
+      <c r="F29">
+        <v>0.08170815203298132</v>
+      </c>
+      <c r="G29">
+        <v>0.06333854242337345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04387816736469814</v>
+        <v>-0.03972688854924503</v>
       </c>
       <c r="C30">
-        <v>-0.0547322281667159</v>
+        <v>0.0576275161573399</v>
       </c>
       <c r="D30">
-        <v>0.06680765907647951</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09617265183905103</v>
+      </c>
+      <c r="E30">
+        <v>-0.07704639149607875</v>
+      </c>
+      <c r="F30">
+        <v>0.08490841731356215</v>
+      </c>
+      <c r="G30">
+        <v>0.03993015245545676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05770111572854078</v>
+        <v>-0.05639188812555879</v>
       </c>
       <c r="C31">
-        <v>-0.04583775834830012</v>
+        <v>0.06189247416214801</v>
       </c>
       <c r="D31">
-        <v>-0.03423474113520247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01624356156913411</v>
+      </c>
+      <c r="E31">
+        <v>-0.06525295875352945</v>
+      </c>
+      <c r="F31">
+        <v>0.044786147370421</v>
+      </c>
+      <c r="G31">
+        <v>0.0787247795538103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001214711302743219</v>
+        <v>-0.004876201738392266</v>
       </c>
       <c r="C32">
-        <v>-0.04062556657235142</v>
+        <v>0.03329202638998469</v>
       </c>
       <c r="D32">
-        <v>0.047241203702907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05291109767976707</v>
+      </c>
+      <c r="E32">
+        <v>-0.05774078025962468</v>
+      </c>
+      <c r="F32">
+        <v>0.07121244033564388</v>
+      </c>
+      <c r="G32">
+        <v>0.03246013692648427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02963421031922896</v>
+        <v>-0.02478575762999137</v>
       </c>
       <c r="C33">
-        <v>-0.06323245232614579</v>
+        <v>0.05548946773330678</v>
       </c>
       <c r="D33">
-        <v>0.03796588258698642</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06911818261214239</v>
+      </c>
+      <c r="E33">
+        <v>-0.08919770352380545</v>
+      </c>
+      <c r="F33">
+        <v>0.09482054038631878</v>
+      </c>
+      <c r="G33">
+        <v>0.07786570548971314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04433649111117275</v>
+        <v>-0.03974206540112964</v>
       </c>
       <c r="C34">
-        <v>-0.06819174926024195</v>
+        <v>0.06538125966946959</v>
       </c>
       <c r="D34">
-        <v>0.01273848184608824</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03610524829447334</v>
+      </c>
+      <c r="E34">
+        <v>-0.0125042605807757</v>
+      </c>
+      <c r="F34">
+        <v>0.0677406172362132</v>
+      </c>
+      <c r="G34">
+        <v>0.05108438656570066</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01612758800827788</v>
+        <v>-0.01393652478938682</v>
       </c>
       <c r="C36">
-        <v>-0.01801032661654067</v>
+        <v>0.01415361233295429</v>
       </c>
       <c r="D36">
-        <v>-0.004807525881331864</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02137803052572036</v>
+      </c>
+      <c r="E36">
+        <v>-0.05703663353119126</v>
+      </c>
+      <c r="F36">
+        <v>0.06226975294341841</v>
+      </c>
+      <c r="G36">
+        <v>0.04888854583344259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02937832299667989</v>
+        <v>-0.02289689742172549</v>
       </c>
       <c r="C38">
-        <v>-0.03059368172183874</v>
+        <v>0.0238492632620195</v>
       </c>
       <c r="D38">
-        <v>-0.01513032639957901</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01904625217729094</v>
+      </c>
+      <c r="E38">
+        <v>-0.04896505232631761</v>
+      </c>
+      <c r="F38">
+        <v>0.05065608973858836</v>
+      </c>
+      <c r="G38">
+        <v>0.03274862279122388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04477017253388135</v>
+        <v>-0.03877446888155845</v>
       </c>
       <c r="C39">
-        <v>-0.0667664529611387</v>
+        <v>0.06497743954804179</v>
       </c>
       <c r="D39">
-        <v>0.0148030416419504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04759928012229479</v>
+      </c>
+      <c r="E39">
+        <v>-0.04576330765304788</v>
+      </c>
+      <c r="F39">
+        <v>0.08515559054835088</v>
+      </c>
+      <c r="G39">
+        <v>0.03843786395465254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0120184568801814</v>
+        <v>-0.0125222835243854</v>
       </c>
       <c r="C40">
-        <v>-0.0519749511728811</v>
+        <v>0.03787788518494019</v>
       </c>
       <c r="D40">
-        <v>0.01413113181564607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02714601989748979</v>
+      </c>
+      <c r="E40">
+        <v>-0.08222648752017983</v>
+      </c>
+      <c r="F40">
+        <v>0.0568289442266118</v>
+      </c>
+      <c r="G40">
+        <v>0.08814703101047272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02228287363942848</v>
+        <v>-0.01909988134538683</v>
       </c>
       <c r="C41">
-        <v>-0.01506022413864418</v>
+        <v>0.01083927132358112</v>
       </c>
       <c r="D41">
-        <v>0.0005089340489082704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01423390903916633</v>
+      </c>
+      <c r="E41">
+        <v>-0.05784005884168478</v>
+      </c>
+      <c r="F41">
+        <v>0.05747428814977267</v>
+      </c>
+      <c r="G41">
+        <v>0.04081415523757201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03943907353079454</v>
+        <v>-0.0290379962494276</v>
       </c>
       <c r="C43">
-        <v>-0.03572513111198288</v>
+        <v>0.02561203201377076</v>
       </c>
       <c r="D43">
-        <v>0.02684887537186486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04109814782290899</v>
+      </c>
+      <c r="E43">
+        <v>-0.07365816215381327</v>
+      </c>
+      <c r="F43">
+        <v>0.05851302961290716</v>
+      </c>
+      <c r="G43">
+        <v>0.06555193781037293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01243656395124117</v>
+        <v>-0.01368518776839123</v>
       </c>
       <c r="C44">
-        <v>-0.06828658346082928</v>
+        <v>0.04863700918779063</v>
       </c>
       <c r="D44">
-        <v>0.007463182830906699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03007491976023541</v>
+      </c>
+      <c r="E44">
+        <v>-0.08694489563817995</v>
+      </c>
+      <c r="F44">
+        <v>0.06947446538058574</v>
+      </c>
+      <c r="G44">
+        <v>0.03042198425291939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007075570492727687</v>
+        <v>-0.0080414124095222</v>
       </c>
       <c r="C46">
-        <v>-0.0306961736809675</v>
+        <v>0.03049360821977997</v>
       </c>
       <c r="D46">
-        <v>-0.01825261739307139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.00954630628592206</v>
+      </c>
+      <c r="E46">
+        <v>-0.05612145727619508</v>
+      </c>
+      <c r="F46">
+        <v>0.09512338350553334</v>
+      </c>
+      <c r="G46">
+        <v>0.06125499560026408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08358108879902366</v>
+        <v>-0.08742647919474222</v>
       </c>
       <c r="C47">
-        <v>-0.07269001868756129</v>
+        <v>0.08288497124319399</v>
       </c>
       <c r="D47">
-        <v>-0.02941824166054968</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02245079950932248</v>
+      </c>
+      <c r="E47">
+        <v>-0.06720729406087855</v>
+      </c>
+      <c r="F47">
+        <v>0.04237783048490239</v>
+      </c>
+      <c r="G47">
+        <v>0.07742920844518654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01828997166208632</v>
+        <v>-0.01621396373665332</v>
       </c>
       <c r="C48">
-        <v>-0.01625571137284239</v>
+        <v>0.01702621953178713</v>
       </c>
       <c r="D48">
-        <v>-0.01896201434883217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.009135852259008094</v>
+      </c>
+      <c r="E48">
+        <v>-0.06661760178542753</v>
+      </c>
+      <c r="F48">
+        <v>0.07953569390731689</v>
+      </c>
+      <c r="G48">
+        <v>0.05674300590233333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08041100428135256</v>
+        <v>-0.06988294346227329</v>
       </c>
       <c r="C50">
-        <v>-0.08391606752473871</v>
+        <v>0.07695124634672779</v>
       </c>
       <c r="D50">
-        <v>-0.03004287314573546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007686035568738529</v>
+      </c>
+      <c r="E50">
+        <v>-0.07433367043822009</v>
+      </c>
+      <c r="F50">
+        <v>0.01948277643752043</v>
+      </c>
+      <c r="G50">
+        <v>0.09390762131084768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01480625368452282</v>
+        <v>-0.009218010045680331</v>
       </c>
       <c r="C51">
-        <v>-0.05007605646020576</v>
+        <v>0.03235743467031973</v>
       </c>
       <c r="D51">
-        <v>0.03130279430121016</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05137704524847031</v>
+      </c>
+      <c r="E51">
+        <v>-0.04834898890808365</v>
+      </c>
+      <c r="F51">
+        <v>0.08059221326686365</v>
+      </c>
+      <c r="G51">
+        <v>0.03590818988621203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08233905813004097</v>
+        <v>-0.09471118755118539</v>
       </c>
       <c r="C53">
-        <v>-0.07830079384011902</v>
+        <v>0.08792189573671363</v>
       </c>
       <c r="D53">
-        <v>-0.05172094549610631</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05554701422890681</v>
+      </c>
+      <c r="E53">
+        <v>-0.06083999064505427</v>
+      </c>
+      <c r="F53">
+        <v>0.04030914252654796</v>
+      </c>
+      <c r="G53">
+        <v>0.07841223414812566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03245382575866102</v>
+        <v>-0.02717965837509539</v>
       </c>
       <c r="C54">
-        <v>-0.03851097343558369</v>
+        <v>0.03303270056961138</v>
       </c>
       <c r="D54">
-        <v>-0.002300435807511866</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02351685260734554</v>
+      </c>
+      <c r="E54">
+        <v>-0.0560796434005167</v>
+      </c>
+      <c r="F54">
+        <v>0.08599650864479147</v>
+      </c>
+      <c r="G54">
+        <v>0.0615617301202608</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07552401826265349</v>
+        <v>-0.08590264727926041</v>
       </c>
       <c r="C55">
-        <v>-0.05858047767088999</v>
+        <v>0.07085540583495323</v>
       </c>
       <c r="D55">
-        <v>-0.05620318747828936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05815553727556722</v>
+      </c>
+      <c r="E55">
+        <v>-0.04334468333257648</v>
+      </c>
+      <c r="F55">
+        <v>0.02189687665322466</v>
+      </c>
+      <c r="G55">
+        <v>0.05965380190470241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.146576718066826</v>
+        <v>-0.1483855459285456</v>
       </c>
       <c r="C56">
-        <v>-0.09440124434731187</v>
+        <v>0.10813931329894</v>
       </c>
       <c r="D56">
-        <v>-0.04915637901041189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05458074523027184</v>
+      </c>
+      <c r="E56">
+        <v>-0.04190578302750604</v>
+      </c>
+      <c r="F56">
+        <v>-0.002540198547269901</v>
+      </c>
+      <c r="G56">
+        <v>0.04153358031520286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0458021388245988</v>
+        <v>-0.02773030505150641</v>
       </c>
       <c r="C58">
-        <v>-0.02273587565702688</v>
+        <v>0.02328642526186555</v>
       </c>
       <c r="D58">
-        <v>0.7070755793800553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3746633374728944</v>
+      </c>
+      <c r="E58">
+        <v>-0.6643977885248754</v>
+      </c>
+      <c r="F58">
+        <v>-0.4867250857255595</v>
+      </c>
+      <c r="G58">
+        <v>-0.3194571060132816</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.134997211756916</v>
+        <v>-0.1475445963322443</v>
       </c>
       <c r="C59">
-        <v>0.1956741013450755</v>
+        <v>-0.1859304204273464</v>
       </c>
       <c r="D59">
-        <v>0.02388313529081613</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02579247688439606</v>
+      </c>
+      <c r="E59">
+        <v>-0.02855528162071036</v>
+      </c>
+      <c r="F59">
+        <v>0.02856821356317731</v>
+      </c>
+      <c r="G59">
+        <v>-0.02031487485255618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3083530345910196</v>
+        <v>-0.2786071016729003</v>
       </c>
       <c r="C60">
-        <v>-0.1083847516892152</v>
+        <v>0.1081568910957317</v>
       </c>
       <c r="D60">
-        <v>0.157246426656387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2658564889503812</v>
+      </c>
+      <c r="E60">
+        <v>0.2388346936849254</v>
+      </c>
+      <c r="F60">
+        <v>-0.07622749809714305</v>
+      </c>
+      <c r="G60">
+        <v>0.03811589400790901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04283382970686071</v>
+        <v>-0.03995466042119897</v>
       </c>
       <c r="C61">
-        <v>-0.0646154783223576</v>
+        <v>0.06109481955274066</v>
       </c>
       <c r="D61">
-        <v>0.009971880968687648</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03889023172121946</v>
+      </c>
+      <c r="E61">
+        <v>-0.04852742910431923</v>
+      </c>
+      <c r="F61">
+        <v>0.06762220498453964</v>
+      </c>
+      <c r="G61">
+        <v>0.05697424619061686</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01560998508493604</v>
+        <v>-0.01448505887789539</v>
       </c>
       <c r="C63">
-        <v>-0.0351469006597733</v>
+        <v>0.03229803987441805</v>
       </c>
       <c r="D63">
-        <v>-0.01665874861167313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01477523122875267</v>
+      </c>
+      <c r="E63">
+        <v>-0.05923665232581791</v>
+      </c>
+      <c r="F63">
+        <v>0.05269159237025631</v>
+      </c>
+      <c r="G63">
+        <v>0.06537365606050503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04944142736731427</v>
+        <v>-0.05487698027401402</v>
       </c>
       <c r="C64">
-        <v>-0.04828121567249335</v>
+        <v>0.05832355764265035</v>
       </c>
       <c r="D64">
-        <v>-0.00158341830750343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.003058633207963319</v>
+      </c>
+      <c r="E64">
+        <v>-0.03542384034893517</v>
+      </c>
+      <c r="F64">
+        <v>0.0721512164093934</v>
+      </c>
+      <c r="G64">
+        <v>0.04941686679627803</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08207975205798544</v>
+        <v>-0.0664612915989745</v>
       </c>
       <c r="C65">
-        <v>-0.02904466560796264</v>
+        <v>0.02833843126946038</v>
       </c>
       <c r="D65">
-        <v>0.05916105012533653</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0857011686579555</v>
+      </c>
+      <c r="E65">
+        <v>-0.05540049583050945</v>
+      </c>
+      <c r="F65">
+        <v>0.01047167482476771</v>
+      </c>
+      <c r="G65">
+        <v>0.02016749559551009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05988648651723369</v>
+        <v>-0.05007084935159686</v>
       </c>
       <c r="C66">
-        <v>-0.09219142729342726</v>
+        <v>0.0837471632286223</v>
       </c>
       <c r="D66">
-        <v>0.03488928365336109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07230231294580373</v>
+      </c>
+      <c r="E66">
+        <v>-0.05443127097736319</v>
+      </c>
+      <c r="F66">
+        <v>0.08167944844455229</v>
+      </c>
+      <c r="G66">
+        <v>0.05542535410893636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05120796720483681</v>
+        <v>-0.04460482460494395</v>
       </c>
       <c r="C67">
-        <v>-0.03220418111907462</v>
+        <v>0.02923518855703025</v>
       </c>
       <c r="D67">
-        <v>-0.02232869749735816</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003653510751983494</v>
+      </c>
+      <c r="E67">
+        <v>-0.02592044041131104</v>
+      </c>
+      <c r="F67">
+        <v>0.03736044150282224</v>
+      </c>
+      <c r="G67">
+        <v>0.02868052472586712</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1337842454266524</v>
+        <v>-0.1556763314374376</v>
       </c>
       <c r="C68">
-        <v>0.2779093039649398</v>
+        <v>-0.2421334091998158</v>
       </c>
       <c r="D68">
-        <v>-0.006605719324865402</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01590409290219794</v>
+      </c>
+      <c r="E68">
+        <v>-0.03865169968296225</v>
+      </c>
+      <c r="F68">
+        <v>0.01046367675631524</v>
+      </c>
+      <c r="G68">
+        <v>0.03019776302354207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09037308067020085</v>
+        <v>-0.0861451306119676</v>
       </c>
       <c r="C69">
-        <v>-0.07309371201551322</v>
+        <v>0.09023010199564063</v>
       </c>
       <c r="D69">
-        <v>-0.0445711725191799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01327220565546519</v>
+      </c>
+      <c r="E69">
+        <v>-0.05311267922757752</v>
+      </c>
+      <c r="F69">
+        <v>0.07019400216483861</v>
+      </c>
+      <c r="G69">
+        <v>0.0690585838567839</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1218658097887153</v>
+        <v>-0.147834565312586</v>
       </c>
       <c r="C71">
-        <v>0.2509011307974001</v>
+        <v>-0.2377102827113584</v>
       </c>
       <c r="D71">
-        <v>0.01455617266493253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.001023303510156355</v>
+      </c>
+      <c r="E71">
+        <v>-0.05962986785109449</v>
+      </c>
+      <c r="F71">
+        <v>0.0292957691643558</v>
+      </c>
+      <c r="G71">
+        <v>0.05851537454076298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09109604428114358</v>
+        <v>-0.09920347031946695</v>
       </c>
       <c r="C72">
-        <v>-0.05846333583964777</v>
+        <v>0.06020662639227753</v>
       </c>
       <c r="D72">
-        <v>0.002127121287283348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02579949038447164</v>
+      </c>
+      <c r="E72">
+        <v>-0.02582940929371339</v>
+      </c>
+      <c r="F72">
+        <v>0.04643162011428623</v>
+      </c>
+      <c r="G72">
+        <v>0.06467737211446246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4039477734112282</v>
+        <v>-0.3416292442415184</v>
       </c>
       <c r="C73">
-        <v>-0.05152615134661569</v>
+        <v>0.07290094788394889</v>
       </c>
       <c r="D73">
-        <v>0.380368211154914</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5215529006493661</v>
+      </c>
+      <c r="E73">
+        <v>0.4378860121991823</v>
+      </c>
+      <c r="F73">
+        <v>-0.2283052343294982</v>
+      </c>
+      <c r="G73">
+        <v>0.02954386412514748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1036698786153466</v>
+        <v>-0.1086333390294337</v>
       </c>
       <c r="C74">
-        <v>-0.09629556621718732</v>
+        <v>0.09641853669218398</v>
       </c>
       <c r="D74">
-        <v>-0.0302184364104324</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04400078607738214</v>
+      </c>
+      <c r="E74">
+        <v>-0.06209054721613051</v>
+      </c>
+      <c r="F74">
+        <v>-0.002226435894446006</v>
+      </c>
+      <c r="G74">
+        <v>0.06688629794506337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2520226049548244</v>
+        <v>-0.2560575547328512</v>
       </c>
       <c r="C75">
-        <v>-0.1061701355003449</v>
+        <v>0.1340632697965345</v>
       </c>
       <c r="D75">
-        <v>-0.1174237104588779</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.148251582146612</v>
+      </c>
+      <c r="E75">
+        <v>-0.04343835917116388</v>
+      </c>
+      <c r="F75">
+        <v>-0.04507785494390321</v>
+      </c>
+      <c r="G75">
+        <v>0.009497602102797176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1126097531166593</v>
+        <v>-0.126484818428241</v>
       </c>
       <c r="C76">
-        <v>-0.08274673866117246</v>
+        <v>0.09554563422874089</v>
       </c>
       <c r="D76">
-        <v>-0.06008819090499595</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07491840313848583</v>
+      </c>
+      <c r="E76">
+        <v>-0.06658704390360233</v>
+      </c>
+      <c r="F76">
+        <v>0.02047254359606824</v>
+      </c>
+      <c r="G76">
+        <v>0.05564667717507309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07576260714171931</v>
+        <v>-0.06197877531428402</v>
       </c>
       <c r="C77">
-        <v>-0.05551270741276818</v>
+        <v>0.06481592241073017</v>
       </c>
       <c r="D77">
-        <v>0.04898156034710401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0511353171172432</v>
+      </c>
+      <c r="E77">
+        <v>-0.09913696992056546</v>
+      </c>
+      <c r="F77">
+        <v>0.1584557643981272</v>
+      </c>
+      <c r="G77">
+        <v>-0.1070644289491316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0479278881808373</v>
+        <v>-0.04453882808293616</v>
       </c>
       <c r="C78">
-        <v>-0.04795781719484552</v>
+        <v>0.05690009346289477</v>
       </c>
       <c r="D78">
-        <v>0.01780971156479226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05711958694850452</v>
+      </c>
+      <c r="E78">
+        <v>-0.0553671893452812</v>
+      </c>
+      <c r="F78">
+        <v>0.07438287554903417</v>
+      </c>
+      <c r="G78">
+        <v>0.04894898485877155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02937914907713446</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04594746773769802</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07485754970388246</v>
+      </c>
+      <c r="E79">
+        <v>-0.05895268572799287</v>
+      </c>
+      <c r="F79">
+        <v>-0.01286261998655241</v>
+      </c>
+      <c r="G79">
+        <v>0.06153423366694986</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03801584975190694</v>
+        <v>-0.02954394926521426</v>
       </c>
       <c r="C80">
-        <v>-0.04978572839319351</v>
+        <v>0.05088275110712866</v>
       </c>
       <c r="D80">
-        <v>0.02219231853658443</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03600212842058993</v>
+      </c>
+      <c r="E80">
+        <v>-0.01891896665934623</v>
+      </c>
+      <c r="F80">
+        <v>0.04792715355937733</v>
+      </c>
+      <c r="G80">
+        <v>-0.02338539470007187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.137953049807879</v>
+        <v>-0.137890770923843</v>
       </c>
       <c r="C81">
-        <v>-0.07739749678513315</v>
+        <v>0.09557582465996102</v>
       </c>
       <c r="D81">
-        <v>-0.08488009086546479</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1191257534679631</v>
+      </c>
+      <c r="E81">
+        <v>-0.06747568526337749</v>
+      </c>
+      <c r="F81">
+        <v>-0.02673941504642248</v>
+      </c>
+      <c r="G81">
+        <v>0.02125953549733039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1748552950965816</v>
+        <v>-0.2113660647667348</v>
       </c>
       <c r="C82">
-        <v>-0.09524690179747716</v>
+        <v>0.1589385103572663</v>
       </c>
       <c r="D82">
-        <v>-0.1800275697956799</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2462767076485776</v>
+      </c>
+      <c r="E82">
+        <v>0.02259747536478714</v>
+      </c>
+      <c r="F82">
+        <v>0.05268971594190935</v>
+      </c>
+      <c r="G82">
+        <v>0.04564661071340079</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03942396486629369</v>
+        <v>-0.02670848974689344</v>
       </c>
       <c r="C83">
-        <v>-0.03077554481251307</v>
+        <v>0.04312005898883248</v>
       </c>
       <c r="D83">
-        <v>0.03198228596702456</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02911213300126221</v>
+      </c>
+      <c r="E83">
+        <v>-0.02580628843656116</v>
+      </c>
+      <c r="F83">
+        <v>0.04597923868165751</v>
+      </c>
+      <c r="G83">
+        <v>-0.002439345710603636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-6.827314760582534e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007396034361010809</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.00121462050384726</v>
+      </c>
+      <c r="E84">
+        <v>-0.0007266787718579621</v>
+      </c>
+      <c r="F84">
+        <v>0.0009040283526557588</v>
+      </c>
+      <c r="G84">
+        <v>0.0006480201084130882</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2195687668638081</v>
+        <v>-0.2024367382335336</v>
       </c>
       <c r="C85">
-        <v>-0.1017082980256805</v>
+        <v>0.1169837797397613</v>
       </c>
       <c r="D85">
-        <v>-0.1485680078420616</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1151161481348397</v>
+      </c>
+      <c r="E85">
+        <v>0.02755732355147864</v>
+      </c>
+      <c r="F85">
+        <v>-0.09174076440322414</v>
+      </c>
+      <c r="G85">
+        <v>0.05681946982776098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00648135466799217</v>
+        <v>-0.009002976333491394</v>
       </c>
       <c r="C86">
-        <v>-0.02745452275212565</v>
+        <v>0.02023740771257239</v>
       </c>
       <c r="D86">
-        <v>0.04404426608368128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05625480177579548</v>
+      </c>
+      <c r="E86">
+        <v>-0.07356391440283711</v>
+      </c>
+      <c r="F86">
+        <v>0.1136160500670454</v>
+      </c>
+      <c r="G86">
+        <v>0.05556477080420559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02386906540237257</v>
+        <v>-0.02416647694618355</v>
       </c>
       <c r="C87">
-        <v>-0.006138141958201256</v>
+        <v>0.01296389229464988</v>
       </c>
       <c r="D87">
-        <v>0.08260439362739502</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07719699722400544</v>
+      </c>
+      <c r="E87">
+        <v>-0.1270794571439234</v>
+      </c>
+      <c r="F87">
+        <v>0.08262899537534099</v>
+      </c>
+      <c r="G87">
+        <v>-0.0001036086108687339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1049901463671956</v>
+        <v>-0.0910415927006132</v>
       </c>
       <c r="C88">
-        <v>-0.07513532625057762</v>
+        <v>0.06395971132792566</v>
       </c>
       <c r="D88">
-        <v>-0.02671800521404339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.003924879079112947</v>
+      </c>
+      <c r="E88">
+        <v>-0.04962244930470597</v>
+      </c>
+      <c r="F88">
+        <v>0.0749471331539231</v>
+      </c>
+      <c r="G88">
+        <v>0.02233311702187429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1903663676547329</v>
+        <v>-0.2249760850233918</v>
       </c>
       <c r="C89">
-        <v>0.3715271476984808</v>
+        <v>-0.3752544775686744</v>
       </c>
       <c r="D89">
-        <v>-0.03011463506873155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02683024083385315</v>
+      </c>
+      <c r="E89">
+        <v>-0.06525003424417582</v>
+      </c>
+      <c r="F89">
+        <v>0.09175603906040845</v>
+      </c>
+      <c r="G89">
+        <v>-0.02424787470292885</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1829091783112209</v>
+        <v>-0.204757497130548</v>
       </c>
       <c r="C90">
-        <v>0.3315539066136735</v>
+        <v>-0.3079044454860553</v>
       </c>
       <c r="D90">
-        <v>-0.03217581137150589</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02706935180726093</v>
+      </c>
+      <c r="E90">
+        <v>-0.06701114964545259</v>
+      </c>
+      <c r="F90">
+        <v>0.03777895328515827</v>
+      </c>
+      <c r="G90">
+        <v>0.005112741606157398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1879359398781339</v>
+        <v>-0.1851077953127587</v>
       </c>
       <c r="C91">
-        <v>-0.1285689349273018</v>
+        <v>0.1455970050594013</v>
       </c>
       <c r="D91">
-        <v>-0.1080886393702515</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1262106274753845</v>
+      </c>
+      <c r="E91">
+        <v>-0.04661379509253639</v>
+      </c>
+      <c r="F91">
+        <v>-0.01147148038577973</v>
+      </c>
+      <c r="G91">
+        <v>0.02484560781543517</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1663619847027397</v>
+        <v>-0.1853057693739455</v>
       </c>
       <c r="C92">
-        <v>0.2813890620655189</v>
+        <v>-0.2868234375011712</v>
       </c>
       <c r="D92">
-        <v>-0.03128168259834065</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03110574611593945</v>
+      </c>
+      <c r="E92">
+        <v>-0.07001219212099906</v>
+      </c>
+      <c r="F92">
+        <v>0.07733220867956205</v>
+      </c>
+      <c r="G92">
+        <v>0.01629351912422876</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.205332737504835</v>
+        <v>-0.2271936700592645</v>
       </c>
       <c r="C93">
-        <v>0.3352972441840973</v>
+        <v>-0.3161911453937677</v>
       </c>
       <c r="D93">
-        <v>-0.03522306133791628</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02297564797812944</v>
+      </c>
+      <c r="E93">
+        <v>-0.04100704759026023</v>
+      </c>
+      <c r="F93">
+        <v>0.0182579523733249</v>
+      </c>
+      <c r="G93">
+        <v>0.03736378493886953</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3309201851263709</v>
+        <v>-0.3345036603774422</v>
       </c>
       <c r="C94">
-        <v>-0.1594419037511028</v>
+        <v>0.1949008722355242</v>
       </c>
       <c r="D94">
-        <v>-0.3530042579619951</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.431863349625729</v>
+      </c>
+      <c r="E94">
+        <v>-0.001186675440304037</v>
+      </c>
+      <c r="F94">
+        <v>-0.2458274025697051</v>
+      </c>
+      <c r="G94">
+        <v>-0.4212302886211354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.11374939113024</v>
+        <v>-0.08422857222900267</v>
       </c>
       <c r="C95">
-        <v>-0.07280940035163101</v>
+        <v>0.06506675302794149</v>
       </c>
       <c r="D95">
-        <v>0.1483711368664369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1836606982653771</v>
+      </c>
+      <c r="E95">
+        <v>0.08941834611203132</v>
+      </c>
+      <c r="F95">
+        <v>0.5708082317020539</v>
+      </c>
+      <c r="G95">
+        <v>-0.7062815761785266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1953479817517654</v>
+        <v>-0.1870273083522074</v>
       </c>
       <c r="C98">
-        <v>-0.02204825756526314</v>
+        <v>0.04729994183086357</v>
       </c>
       <c r="D98">
-        <v>0.1318621639851714</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1999902397055627</v>
+      </c>
+      <c r="E98">
+        <v>0.1318564718752697</v>
+      </c>
+      <c r="F98">
+        <v>-0.06257205462081564</v>
+      </c>
+      <c r="G98">
+        <v>0.08469163901488383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005909599147824972</v>
+        <v>-0.004627403069459847</v>
       </c>
       <c r="C101">
-        <v>-0.03504658140633632</v>
+        <v>0.03000469896677632</v>
       </c>
       <c r="D101">
-        <v>-0.01594661850935617</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01578065767864631</v>
+      </c>
+      <c r="E101">
+        <v>-0.04856625944756024</v>
+      </c>
+      <c r="F101">
+        <v>0.08235579354383452</v>
+      </c>
+      <c r="G101">
+        <v>0.06313806052141056</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1242317841104198</v>
+        <v>-0.1257332372485818</v>
       </c>
       <c r="C102">
-        <v>-0.07084536135748842</v>
+        <v>0.1018942484306795</v>
       </c>
       <c r="D102">
-        <v>-0.04052501149902978</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05225056715380555</v>
+      </c>
+      <c r="E102">
+        <v>0.0116230228777921</v>
+      </c>
+      <c r="F102">
+        <v>0.01860932158714876</v>
+      </c>
+      <c r="G102">
+        <v>4.067790200214108e-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
